--- a/spliced/walkingToRunning/2023-04-03_16-54-49/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-54-49/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.220451354980469</v>
+        <v>-7.333617687225342</v>
       </c>
       <c r="D2" t="n">
-        <v>-10.4212532043457</v>
+        <v>-4.549784660339356</v>
       </c>
       <c r="E2" t="n">
-        <v>3.805822134017944</v>
+        <v>0.0833368301391601</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.015379755757749</v>
+        <v>0.4665061936658925</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.799865007400513</v>
+        <v>-0.1984146457969052</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7140600681304932</v>
+        <v>0.8845337243641089</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-10.96350479125977</v>
+        <v>-15.08706188201904</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.391891479492188</v>
+        <v>-8.937231063842773</v>
       </c>
       <c r="E3" t="n">
-        <v>2.885201692581177</v>
+        <v>-1.605889558792114</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9480579466394625</v>
+        <v>0.7887173727446912</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.158635705125103</v>
+        <v>-0.2283256008636717</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.216983846589626</v>
+        <v>-2.244795449808533</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-7.85678768157959</v>
+        <v>11.69874000549316</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.700175285339356</v>
+        <v>-22.40719985961914</v>
       </c>
       <c r="E4" t="n">
-        <v>4.035121917724609</v>
+        <v>1.197917938232422</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3824025334096443</v>
+        <v>2.415960978059204</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9166039158316155</v>
+        <v>-0.9742195974378011</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.483935629620275</v>
+        <v>-3.041498450671924</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.866809844970703</v>
+        <v>3.118687152862549</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.858870506286621</v>
+        <v>-6.122324466705322</v>
       </c>
       <c r="E5" t="n">
-        <v>4.48725700378418</v>
+        <v>8.912668228149414</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2129549734732704</v>
+        <v>-5.063323306102351</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.284775551627672</v>
+        <v>-1.817073576590591</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2467849605223773</v>
+        <v>2.776077873566551</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-7.333617687225342</v>
+        <v>-8.666399955749512</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.549784660339356</v>
+        <v>-21.93803024291992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0833368301391601</v>
+        <v>20.0407600402832</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4665061936658925</v>
+        <v>-6.820184679592355</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1984146457969052</v>
+        <v>0.3425412797460279</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8845337243641089</v>
+        <v>5.666934162962662</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-15.08706188201904</v>
+        <v>-24.77190589904785</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.937231063842773</v>
+        <v>16.44706535339355</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.605889558792114</v>
+        <v>-12.57914733886719</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7887173727446912</v>
+        <v>-0.2362654770122372</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2283256008636717</v>
+        <v>5.465962034814462</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.244795449808533</v>
+        <v>3.005506543552197</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11.69874000549316</v>
+        <v>1.322300910949707</v>
       </c>
       <c r="D8" t="n">
-        <v>-22.40719985961914</v>
+        <v>-0.346986711025238</v>
       </c>
       <c r="E8" t="n">
-        <v>1.197917938232422</v>
+        <v>-9.815587043762209</v>
       </c>
       <c r="F8" t="n">
-        <v>2.415960978059204</v>
+        <v>4.696316433887858</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.9742195974378011</v>
+        <v>-2.277570799285295</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.041498450671924</v>
+        <v>-2.875306896134922</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.118687152862549</v>
+        <v>27.22784423828125</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.122324466705322</v>
+        <v>-27.38262748718262</v>
       </c>
       <c r="E9" t="n">
-        <v>8.912668228149414</v>
+        <v>-23.78179931640625</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.063323306102351</v>
+        <v>6.539746003992415</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.817073576590591</v>
+        <v>-0.2706960135815262</v>
       </c>
       <c r="H9" t="n">
-        <v>2.776077873566551</v>
+        <v>-1.030937138725735</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-8.666399955749512</v>
+        <v>49.64927673339844</v>
       </c>
       <c r="D10" t="n">
-        <v>-21.93803024291992</v>
+        <v>-42.73597717285156</v>
       </c>
       <c r="E10" t="n">
-        <v>20.0407600402832</v>
+        <v>-6.524261474609375</v>
       </c>
       <c r="F10" t="n">
-        <v>-6.820184679592355</v>
+        <v>4.692681789398195</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3425412797460279</v>
+        <v>1.697400997666751</v>
       </c>
       <c r="H10" t="n">
-        <v>5.666934162962662</v>
+        <v>-1.396730149493496</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-24.77190589904785</v>
+        <v>-3.964775562286377</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44706535339355</v>
+        <v>4.51526403427124</v>
       </c>
       <c r="E11" t="n">
-        <v>-12.57914733886719</v>
+        <v>1.280887007713318</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2362654770122372</v>
+        <v>-4.347883439531461</v>
       </c>
       <c r="G11" t="n">
-        <v>5.465962034814462</v>
+        <v>-0.5452939552419174</v>
       </c>
       <c r="H11" t="n">
-        <v>3.005506543552197</v>
+        <v>0.9300998636320361</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.322300910949707</v>
+        <v>39.84653091430664</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.346986711025238</v>
+        <v>-19.79646873474121</v>
       </c>
       <c r="E12" t="n">
-        <v>-9.815587043762209</v>
+        <v>38.97504425048828</v>
       </c>
       <c r="F12" t="n">
-        <v>4.696316433887858</v>
+        <v>-9.689171734978153</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.277570799285295</v>
+        <v>-3.703270496106596</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.875306896134922</v>
+        <v>9.968994430467122</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27.22784423828125</v>
+        <v>-19.31760787963867</v>
       </c>
       <c r="D13" t="n">
-        <v>-27.38262748718262</v>
+        <v>17.29528427124023</v>
       </c>
       <c r="E13" t="n">
-        <v>-23.78179931640625</v>
+        <v>-8.18376350402832</v>
       </c>
       <c r="F13" t="n">
-        <v>6.539746003992415</v>
+        <v>2.393433683058804</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2706960135815262</v>
+        <v>-9.479072037865135</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.030937138725735</v>
+        <v>1.899762265822456</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>49.64927673339844</v>
+        <v>-16.73611831665039</v>
       </c>
       <c r="D14" t="n">
-        <v>-42.73597717285156</v>
+        <v>-1.23279333114624</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.524261474609375</v>
+        <v>-18.61682319641113</v>
       </c>
       <c r="F14" t="n">
-        <v>4.692681789398195</v>
+        <v>4.808085488338101</v>
       </c>
       <c r="G14" t="n">
-        <v>1.697400997666751</v>
+        <v>-6.932880869098746</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.396730149493496</v>
+        <v>-1.150131797089299</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-3.964775562286377</v>
+        <v>-40.93106842041016</v>
       </c>
       <c r="D15" t="n">
-        <v>4.51526403427124</v>
+        <v>-28.66251182556152</v>
       </c>
       <c r="E15" t="n">
-        <v>1.280887007713318</v>
+        <v>5.111406803131104</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.347883439531461</v>
+        <v>6.954113165537517</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.5452939552419174</v>
+        <v>4.074747403462728</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9300998636320361</v>
+        <v>-1.481094896793366</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>39.84653091430664</v>
+        <v>-5.353846549987793</v>
       </c>
       <c r="D16" t="n">
-        <v>-19.79646873474121</v>
+        <v>3.492556095123291</v>
       </c>
       <c r="E16" t="n">
-        <v>38.97504425048828</v>
+        <v>14.51318454742432</v>
       </c>
       <c r="F16" t="n">
-        <v>-9.689171734978153</v>
+        <v>0.2588006748873219</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.703270496106596</v>
+        <v>3.881287055857073</v>
       </c>
       <c r="H16" t="n">
-        <v>9.968994430467122</v>
+        <v>1.234817659153635</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-19.31760787963867</v>
+        <v>-5.202733993530273</v>
       </c>
       <c r="D17" t="n">
-        <v>17.29528427124023</v>
+        <v>10.5782413482666</v>
       </c>
       <c r="E17" t="n">
-        <v>-8.18376350402832</v>
+        <v>3.768710374832153</v>
       </c>
       <c r="F17" t="n">
-        <v>2.393433683058804</v>
+        <v>-3.794551531473794</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.479072037865135</v>
+        <v>-1.161946320066274</v>
       </c>
       <c r="H17" t="n">
-        <v>1.899762265822456</v>
+        <v>2.955449520372877</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-16.73611831665039</v>
+        <v>17.96537399291992</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.23279333114624</v>
+        <v>-41.82672500610352</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.61682319641113</v>
+        <v>13.37196350097656</v>
       </c>
       <c r="F18" t="n">
-        <v>4.808085488338101</v>
+        <v>-3.552903596092673</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.932880869098746</v>
+        <v>6.386371462952866</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.150131797089299</v>
+        <v>1.291433391325612</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-40.93106842041016</v>
+        <v>16.90632247924805</v>
       </c>
       <c r="D19" t="n">
-        <v>-28.66251182556152</v>
+        <v>11.39815711975098</v>
       </c>
       <c r="E19" t="n">
-        <v>5.111406803131104</v>
+        <v>-9.546463966369627</v>
       </c>
       <c r="F19" t="n">
-        <v>6.954113165537517</v>
+        <v>-2.714477875653444</v>
       </c>
       <c r="G19" t="n">
-        <v>4.074747403462728</v>
+        <v>9.294961256139448</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.481094896793366</v>
+        <v>-3.878858893233145</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-5.353846549987793</v>
+        <v>-13.79934120178223</v>
       </c>
       <c r="D20" t="n">
-        <v>3.492556095123291</v>
+        <v>-5.43239688873291</v>
       </c>
       <c r="E20" t="n">
-        <v>14.51318454742432</v>
+        <v>-14.25337219238281</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2588006748873219</v>
+        <v>2.263628258424627</v>
       </c>
       <c r="G20" t="n">
-        <v>3.881287055857073</v>
+        <v>-0.6571153846441176</v>
       </c>
       <c r="H20" t="n">
-        <v>1.234817659153635</v>
+        <v>-3.716604506268235</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-5.202733993530273</v>
+        <v>-7.913525104522705</v>
       </c>
       <c r="D21" t="n">
-        <v>10.5782413482666</v>
+        <v>-43.03920745849609</v>
       </c>
       <c r="E21" t="n">
-        <v>3.768710374832153</v>
+        <v>5.675649166107178</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.794551531473794</v>
+        <v>3.927821926042158</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.161946320066274</v>
+        <v>-5.819554076475262</v>
       </c>
       <c r="H21" t="n">
-        <v>2.955449520372877</v>
+        <v>-0.2955599602531069</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-19.80719947814941</v>
+      </c>
+      <c r="D22" t="n">
+        <v>17.96865081787109</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9991121292114258</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.031181216239927</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-3.260402391938594</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.723365492680494</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5.307936668395996</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-36.55269622802734</v>
+      </c>
+      <c r="E23" t="n">
+        <v>44.45186233520508</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-5.857060266476065</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.9245907862981151</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.962034623996895</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-72.68199157714844</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-20.47943878173828</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-39.62965774536133</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-3.386064576167785</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.2334743749861628</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.267812457739236</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-8.546328544616699</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6573230028152466</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-10.66314029693604</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.026514137492571</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1.510893523693044</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-3.966962477740206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-15.78201103210449</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-11.37719249725342</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-7.033545017242432</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.048832594179637</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-2.553463636660109</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-2.418893182978909</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-11.98593044281006</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.52801513671875</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9.990962028503418</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.535124498255125</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1.166468461500665</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-2.345369084208624</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-9.182360649108888</v>
+      </c>
+      <c r="D28" t="n">
+        <v>19.98668098449707</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.591425895690918</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-3.627002197153437</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.152242738972691</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2601947556523713</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>14.62302780151367</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-34.03761672973633</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14.29042530059814</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-3.252175232943356</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.719280733197323</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.07690661035332244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-34.80189895629883</v>
+      </c>
+      <c r="D30" t="n">
+        <v>14.59354972839356</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-21.27434158325196</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-2.007904552945881</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8.391763182247416</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-2.262497771020045</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-21.16343307495117</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-7.425243377685547</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-10.02677822113037</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.766276373582728</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6.427707840414632</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-4.763592523687029</v>
       </c>
     </row>
   </sheetData>
